--- a/ipv4.xlsx
+++ b/ipv4.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="SuperRed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>RED</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <r>
-      <t>192.168.</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -246,7 +243,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>00000</t>
     </r>
     <r>
       <rPr>
@@ -256,22 +253,257 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+  </si>
+  <si>
+    <t>New Mask</t>
+  </si>
+  <si>
+    <t>Ejemplos :</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <t>empieza</t>
+  </si>
+  <si>
+    <t>termina</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>192.168.63.255</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>255.248.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.255.254</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.254</t>
+    </r>
+  </si>
+  <si>
+    <t>172.23.255.255</t>
+  </si>
+  <si>
+    <t>3° Octeto</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>192.168.5.0</t>
+  </si>
+  <si>
+    <t>172.16.8.0</t>
+  </si>
+  <si>
+    <t>255.252.0.0</t>
+  </si>
+  <si>
+    <t>172.16.8.1</t>
+  </si>
+  <si>
+    <t>172.16.9.254</t>
+  </si>
+  <si>
+    <t>172.16.9.255</t>
+  </si>
+  <si>
+    <t>192.168.64.0</t>
+  </si>
+  <si>
+    <t>192.168.64.1</t>
+  </si>
+  <si>
+    <t>192.168.95.254</t>
+  </si>
+  <si>
+    <t>192.168.95.255</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>255.255.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>248</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.0</t>
     </r>
   </si>
   <si>
     <r>
-      <t>192.168.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
     </r>
     <r>
       <rPr>
@@ -281,71 +513,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.0</t>
-    </r>
-  </si>
-  <si>
-    <t>11111111</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>101</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-  </si>
-  <si>
-    <t>New Mask</t>
-  </si>
-  <si>
-    <t>255.255.248.0</t>
-  </si>
-  <si>
-    <t>DIRECCION DE SUPERRED: Direccion Cuya Mascara es Menor a la Mascara de la Clase</t>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>SUPERRED: Direccion Cuya Mascara de Subred es Menor a la Mascara predeterminada de la Clase</t>
+  </si>
+  <si>
+    <t>Red A</t>
+  </si>
+  <si>
+    <t>Red B</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>R1 Redes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,16 +559,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -385,28 +659,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis5" xfId="4" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,6 +810,42 @@
     <tableColumn id="2" name="1IP"/>
     <tableColumn id="3" name="UltimaiP"/>
     <tableColumn id="4" name="BC"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A10:F21" totalsRowShown="0">
+  <autoFilter ref="A10:F21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="red"/>
+    <tableColumn id="2" name="mascara"/>
+    <tableColumn id="3" name="empieza"/>
+    <tableColumn id="4" name="termina"/>
+    <tableColumn id="5" name="broadcast"/>
+    <tableColumn id="6" name="CIDR"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B4:C7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+  <autoFilter ref="B4:C7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="3° Octeto" dataDxfId="2"/>
+    <tableColumn id="2" name="Bits" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="D4:D7" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="D4:D7"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="New Mask"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,13 +1177,13 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -781,9 +1200,9 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -798,11 +1217,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -817,9 +1236,9 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -831,13 +1250,13 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
@@ -849,35 +1268,35 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>255255255192</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>255255255128</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -897,80 +1316,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16">
+        <v>24</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="15">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6">
+        <v>255</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>255</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>11111000</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1">
+        <v>255255224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="25"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>